--- a/Speedy Barcodes 2June.xlsx
+++ b/Speedy Barcodes 2June.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zayed\Downloads\Catalogs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1691FBC-3E7A-4B2E-BD0A-AA4D8EE47250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06C22486-1D15-42BE-AFC7-454C279AFFAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -105,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="609">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="610">
   <si>
     <t>UPC-12</t>
   </si>
@@ -1932,6 +1932,9 @@
   </si>
   <si>
     <t>M3SG</t>
+  </si>
+  <si>
+    <t>LIGHTARC</t>
   </si>
 </sst>
 </file>
@@ -2354,8 +2357,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F501"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="J99" sqref="J99"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="G78" sqref="G78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -3260,7 +3263,9 @@
       <c r="B76" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="C76" s="3"/>
+      <c r="C76" t="s">
+        <v>609</v>
+      </c>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
     </row>

--- a/Speedy Barcodes 2June.xlsx
+++ b/Speedy Barcodes 2June.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zayed\Downloads\Catalogs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06C22486-1D15-42BE-AFC7-454C279AFFAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E888ABA-1112-4A26-8895-3C91C5546A41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -105,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="610">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="624">
   <si>
     <t>UPC-12</t>
   </si>
@@ -1935,6 +1935,48 @@
   </si>
   <si>
     <t>LIGHTARC</t>
+  </si>
+  <si>
+    <t>M3TN</t>
+  </si>
+  <si>
+    <t>MYTN</t>
+  </si>
+  <si>
+    <t>M3YCCST</t>
+  </si>
+  <si>
+    <t>M3YCSST</t>
+  </si>
+  <si>
+    <t>M3YDST</t>
+  </si>
+  <si>
+    <t>TFC</t>
+  </si>
+  <si>
+    <t>M3HC</t>
+  </si>
+  <si>
+    <t>MYHC</t>
+  </si>
+  <si>
+    <t>M3MYLJ</t>
+  </si>
+  <si>
+    <t>M3MYST</t>
+  </si>
+  <si>
+    <t>TC</t>
+  </si>
+  <si>
+    <t>TF</t>
+  </si>
+  <si>
+    <t>TCF</t>
+  </si>
+  <si>
+    <t>GANC</t>
   </si>
 </sst>
 </file>
@@ -1947,11 +1989,18 @@
     <numFmt numFmtId="44" formatCode="_-&quot;AED&quot;* #,##0.00_-;\-&quot;AED&quot;* #,##0.00_-;_-&quot;AED&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2016,27 +2065,28 @@
   </borders>
   <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Comma [0] 2" xfId="6" xr:uid="{07EA1ADD-84C5-4C23-97D4-9FD22648BCDA}"/>
@@ -2357,8 +2407,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F501"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="G78" sqref="G78"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -3335,11 +3385,15 @@
       <c r="B82" s="2" t="s">
         <v>586</v>
       </c>
-      <c r="C82" s="7" t="s">
+      <c r="C82" s="8" t="s">
         <v>585</v>
       </c>
-      <c r="D82" s="3"/>
-      <c r="E82" s="3"/>
+      <c r="D82" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>611</v>
+      </c>
     </row>
     <row r="83" spans="1:5" ht="12.75" customHeight="1">
       <c r="A83" s="1" t="s">
@@ -3369,7 +3423,9 @@
       <c r="B85" t="s">
         <v>593</v>
       </c>
-      <c r="C85" s="3"/>
+      <c r="C85" s="3" t="s">
+        <v>612</v>
+      </c>
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
     </row>
@@ -3380,7 +3436,9 @@
       <c r="B86" t="s">
         <v>594</v>
       </c>
-      <c r="C86" s="3"/>
+      <c r="C86" s="3" t="s">
+        <v>613</v>
+      </c>
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
     </row>
@@ -3391,7 +3449,9 @@
       <c r="B87" t="s">
         <v>595</v>
       </c>
-      <c r="C87" s="3"/>
+      <c r="C87" s="3" t="s">
+        <v>614</v>
+      </c>
       <c r="D87" s="3"/>
       <c r="E87" s="3"/>
     </row>
@@ -3402,7 +3462,9 @@
       <c r="B88" t="s">
         <v>596</v>
       </c>
-      <c r="C88" s="3"/>
+      <c r="C88" s="3" t="s">
+        <v>615</v>
+      </c>
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
     </row>
@@ -3413,7 +3475,9 @@
       <c r="B89" t="s">
         <v>597</v>
       </c>
-      <c r="C89" s="3"/>
+      <c r="C89" s="3" t="s">
+        <v>616</v>
+      </c>
       <c r="D89" s="3"/>
       <c r="E89" s="3"/>
     </row>
@@ -3424,7 +3488,9 @@
       <c r="B90" t="s">
         <v>598</v>
       </c>
-      <c r="C90" s="3"/>
+      <c r="C90" s="3" t="s">
+        <v>617</v>
+      </c>
       <c r="D90" s="3"/>
       <c r="E90" s="3"/>
     </row>
@@ -3435,7 +3501,9 @@
       <c r="B91" t="s">
         <v>599</v>
       </c>
-      <c r="C91" s="3"/>
+      <c r="C91" s="3" t="s">
+        <v>618</v>
+      </c>
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
     </row>
@@ -3446,7 +3514,9 @@
       <c r="B92" t="s">
         <v>600</v>
       </c>
-      <c r="C92" s="3"/>
+      <c r="C92" s="3" t="s">
+        <v>619</v>
+      </c>
       <c r="D92" s="3"/>
       <c r="E92" s="3"/>
     </row>
@@ -3457,7 +3527,9 @@
       <c r="B93" t="s">
         <v>601</v>
       </c>
-      <c r="C93" s="3"/>
+      <c r="C93" s="3" t="s">
+        <v>620</v>
+      </c>
       <c r="D93" s="3"/>
       <c r="E93" s="3"/>
     </row>
@@ -3468,7 +3540,9 @@
       <c r="B94" t="s">
         <v>602</v>
       </c>
-      <c r="C94" s="3"/>
+      <c r="C94" s="3" t="s">
+        <v>621</v>
+      </c>
       <c r="D94" s="3"/>
       <c r="E94" s="3"/>
     </row>
@@ -3479,7 +3553,9 @@
       <c r="B95" t="s">
         <v>603</v>
       </c>
-      <c r="C95" s="3"/>
+      <c r="C95" s="3" t="s">
+        <v>622</v>
+      </c>
       <c r="D95" s="3"/>
       <c r="E95" s="3"/>
     </row>
@@ -3490,7 +3566,9 @@
       <c r="B96" s="2" t="s">
         <v>604</v>
       </c>
-      <c r="C96" s="3"/>
+      <c r="C96" s="3" t="s">
+        <v>623</v>
+      </c>
       <c r="D96" s="3"/>
       <c r="E96" s="3"/>
     </row>
